--- a/xfoil wyniki/naca 0009 flap Ma_delta_h.xlsx
+++ b/xfoil wyniki/naca 0009 flap Ma_delta_h.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magda\Desktop\SUL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7476e735a9b2a536/Dokumenty/A_studia/semestr 6/SUL/SUL_github/SUL-2023L/xfoil wyniki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612FB68-32B5-44B8-8004-05C5B162BFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F612FB68-32B5-44B8-8004-05C5B162BFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11DBFB0A-FAA0-4A85-A709-ED854483912F}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,7 +155,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -227,7 +227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -397,7 +397,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1577837920"/>
@@ -459,7 +459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1726494512"/>
@@ -500,7 +500,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1072,15 +1072,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>262303</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>148003</xdr:rowOff>
+      <xdr:colOff>186103</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>411773</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>33703</xdr:rowOff>
+      <xdr:colOff>335573</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
